--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 EL.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>Course</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>% of F's</t>
+  </si>
+  <si>
+    <t>% of Q Drop's</t>
   </si>
   <si>
     <t>ELIC-100</t>
@@ -357,12 +360,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -656,15 +658,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,792 +691,882 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.385</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2.214</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>2.467</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>1.643</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>2.667</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>2.492</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
         <v>3.454</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
         <v>2.389</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
         <v>2.333</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="n">
         <v>2.909</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="n">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="n">
         <v>1.714</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
         <v>23</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
         <v>2.375</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" t="n">
         <v>2.813</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-      <c r="F38" t="s">
-        <v>62</v>
-      </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C41" t="n">
         <v>1.867</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" t="n">
         <v>1.867</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
         <v>2.929</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C48" t="n">
         <v>3.031</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" t="n">
         <v>2.818</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>1.846</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" t="n">
         <v>2.454</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
         <v>2.667</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
         <v>39</v>
       </c>
-      <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
       <c r="H61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>2.55</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
         <v>2.182</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" t="n">
         <v>2.889</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71" t="n">
         <v>3.083</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="n">
         <v>3.2</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" t="n">
         <v>3.667</v>
       </c>
       <c r="D77" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
